--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -803,42 +803,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -268,8 +268,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -282,10 +282,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -324,13 +324,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -343,13 +343,13 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -363,13 +363,13 @@
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].system</t>
@@ -378,16 +378,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>urn:oid:2.16.840.1.113883.5.104</t>
@@ -402,13 +402,13 @@
     <t>Extension.value[x].version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -424,13 +424,13 @@
 </t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -442,13 +442,13 @@
     <t>Extension.value[x].display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -464,16 +464,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -813,7 +813,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -268,8 +268,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -282,10 +282,10 @@
 </t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -324,13 +324,13 @@
 </t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -343,13 +343,13 @@
 </t>
   </si>
   <si>
-    <t>拡張値の値 / Value of extension</t>
-  </si>
-  <si>
-    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -363,13 +363,13 @@
 user content</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].system</t>
@@ -378,16 +378,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>urn:oid:2.16.840.1.113883.5.104</t>
@@ -402,13 +402,13 @@
     <t>Extension.value[x].version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -424,13 +424,13 @@
 </t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -442,13 +442,13 @@
     <t>Extension.value[x].display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -464,16 +464,16 @@
 </t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -813,7 +813,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -339,7 +339,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -347,139 +347,26 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.value[x].system</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.840.1.113883.5.104</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Extension.value[x].version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Extension.value[x].code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Extension.value[x].display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Extension.value[x].userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-Race</t>
   </si>
 </sst>
 </file>
@@ -794,7 +681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -803,9 +690,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -813,7 +700,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -827,13 +714,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.6328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1425,16 +1312,14 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>102</v>
@@ -1449,7 +1334,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>101</v>
@@ -1457,9 +1342,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1480,13 +1367,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1513,13 +1400,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1537,7 +1422,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1549,626 +1434,10 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -363,7 +363,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>required</t>
+    <t>preferred</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-Race</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -252,15 +252,13 @@
     <t>人種に関する情報</t>
   </si>
   <si>
-    <t>人種に関する情報を表現する拡張。
-ValueSetとして
-http://terminology.hl7.org/CodeSystem/v3-Race
-を使用する。
-例：
-Code : Description
-2103-3 : White
-2039-6 : Japanese
-2040-4 : Korean
+    <t>人種に関する情報を表現する拡張。  
+ValueSetとしてhttp://terminology.hl7.org/CodeSystem/v3-Raceを使用する。  
+例： 
+- Code : Description
+- 2103-3 : White
+- 2039-6 : Japanese
+- 2040-4 : Korean  
 等</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -266,53 +269,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -613,63 +616,63 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -728,214 +731,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -944,23 +947,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>84</v>
@@ -974,65 +977,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>88</v>
@@ -1044,29 +1047,29 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>91</v>
@@ -1074,38 +1077,38 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>92</v>
@@ -1114,7 +1117,7 @@
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>94</v>
@@ -1123,28 +1126,28 @@
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1154,75 +1157,75 @@
         <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>83</v>
@@ -1231,211 +1234,211 @@
         <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Patient</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -359,6 +362,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
@@ -682,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -691,42 +697,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.6328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.6328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -838,135 +844,141 @@
       <c r="AJ1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>85</v>
@@ -974,199 +986,205 @@
       <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -1177,98 +1195,101 @@
       <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
+      <c r="N5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>105</v>
@@ -1276,99 +1297,102 @@
       <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>105</v>
@@ -1376,69 +1400,72 @@
       <c r="L7" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>人種に関する情報</t>
@@ -876,16 +880,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -944,7 +948,7 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
@@ -955,10 +959,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -969,7 +973,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -981,13 +985,13 @@
         <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1038,13 +1042,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1053,15 +1057,15 @@
         <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1084,13 +1088,13 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1129,19 +1133,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1153,7 +1157,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1161,10 +1165,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1172,10 +1176,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1187,16 +1191,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1246,13 +1250,13 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
@@ -1261,15 +1265,15 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1280,7 +1284,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1292,13 +1296,13 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1337,43 +1341,43 @@
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -1383,7 +1387,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1395,13 +1399,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1428,11 +1432,11 @@
         <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>77</v>
@@ -1450,22 +1454,22 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>人種に関する情報</t>
@@ -880,16 +876,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -948,7 +944,7 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
@@ -959,10 +955,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -973,25 +969,25 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1042,13 +1038,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1057,15 +1053,15 @@
         <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1088,13 +1084,13 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1133,19 +1129,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1157,7 +1153,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1165,10 +1161,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1176,10 +1172,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1191,16 +1187,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1250,13 +1246,13 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
@@ -1265,15 +1261,15 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1284,7 +1280,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1296,13 +1292,13 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1341,43 +1337,43 @@
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -1387,7 +1383,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1399,13 +1395,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1432,11 +1428,11 @@
         <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>77</v>
@@ -1454,22 +1450,22 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -286,10 +286,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -321,8 +321,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -332,13 +332,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -351,10 +351,10 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -364,7 +364,7 @@
     <t>closed</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -357,27 +357,14 @@
     <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-Race</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-Race</t>
   </si>
 </sst>
 </file>
@@ -692,7 +679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -701,9 +688,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.9765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1329,26 +1316,26 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>105</v>
@@ -1366,109 +1353,6 @@
         <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Patient</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -486,10 +375,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -679,7 +568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -690,670 +579,555 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="41.6328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>76</v>
+      <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Patient</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -375,10 +486,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -568,7 +679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -579,555 +690,670 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="41.6328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>40</v>
+      <c r="H1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -165,6 +165,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -208,10 +212,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -712,7 +712,7 @@
         <v>46</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>40</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -734,7 +734,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -746,13 +746,13 @@
         <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -803,13 +803,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -818,15 +818,15 @@
         <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -849,13 +849,13 @@
         <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -894,19 +894,19 @@
         <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>41</v>
@@ -918,7 +918,7 @@
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -937,10 +937,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -1014,10 +1014,10 @@
         <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -1045,7 +1045,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -1118,7 +1118,7 @@
         <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -153,11 +153,11 @@
   <si>
     <t>人種に関する情報を表現する拡張。  
 ValueSetとしてhttp://terminology.hl7.org/CodeSystem/v3-Raceを使用する。  
-例： 
-- Code : Description
-- 2103-3 : White
-- 2039-6 : Japanese
-- 2040-4 : Korean  
+例：  
+　- Code : Description  
+　- 2103-3 : White  
+　- 2039-6 : Japanese  
+　- 2040-4 : Korean  
 等</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Patient</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -568,7 +679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -579,555 +690,670 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="41.6328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>40</v>
+      <c r="I1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Patient</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -679,7 +568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -690,670 +579,555 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="41.6328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>76</v>
+      <c r="AK1" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient-race.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
